--- a/datos_produccion_grandes.xlsx
+++ b/datos_produccion_grandes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John Rodriguez\Documents\Programacion\programacion automatica\production_optimizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C793CF3F-D523-43E5-BF81-7D5ED72BED86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365EAD3B-6ED0-421C-B5D7-21D942DC5DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="137">
   <si>
     <t>referencia</t>
   </si>
@@ -438,6 +438,12 @@
   </si>
   <si>
     <t>REF120</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>M6</t>
   </si>
 </sst>
 </file>
@@ -804,7 +810,7 @@
   <dimension ref="A1:G121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="K120" sqref="K120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -840,13 +846,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>20522</v>
       </c>
       <c r="D2">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -863,13 +869,13 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="C3">
         <v>17335</v>
       </c>
       <c r="D3">
-        <v>321.89999999999998</v>
+        <v>350</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -886,13 +892,13 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="C4">
         <v>13665</v>
       </c>
       <c r="D4">
-        <v>257.60000000000002</v>
+        <v>450</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -909,13 +915,13 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>22665</v>
       </c>
       <c r="D5">
-        <v>245.9</v>
+        <v>450</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -932,13 +938,13 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>19128</v>
       </c>
       <c r="D6">
-        <v>157</v>
+        <v>270</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -955,13 +961,13 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>5404</v>
       </c>
       <c r="D7">
-        <v>327.8</v>
+        <v>300</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -978,13 +984,13 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>8245</v>
       </c>
       <c r="D8">
-        <v>340.1</v>
+        <v>450</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -1007,7 +1013,7 @@
         <v>13598</v>
       </c>
       <c r="D9">
-        <v>154.69999999999999</v>
+        <v>200</v>
       </c>
       <c r="E9">
         <v>4</v>
@@ -1030,7 +1036,7 @@
         <v>6136</v>
       </c>
       <c r="D10">
-        <v>332.1</v>
+        <v>400</v>
       </c>
       <c r="E10">
         <v>5</v>
@@ -1047,13 +1053,13 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="C11">
         <v>11477</v>
       </c>
       <c r="D11">
-        <v>216.7</v>
+        <v>270</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1070,13 +1076,13 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C12">
         <v>20006</v>
       </c>
       <c r="D12">
-        <v>219.5</v>
+        <v>270</v>
       </c>
       <c r="E12">
         <v>4</v>
@@ -1093,13 +1099,13 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>5190</v>
       </c>
       <c r="D13">
-        <v>291.89999999999998</v>
+        <v>200</v>
       </c>
       <c r="E13">
         <v>4</v>
@@ -1116,13 +1122,13 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C14">
         <v>20484</v>
       </c>
       <c r="D14">
-        <v>154.5</v>
+        <v>200</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1139,13 +1145,13 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="C15">
         <v>5245</v>
       </c>
       <c r="D15">
-        <v>284.10000000000002</v>
+        <v>450</v>
       </c>
       <c r="E15">
         <v>4</v>
@@ -1162,13 +1168,13 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <v>17189</v>
       </c>
       <c r="D16">
-        <v>290.7</v>
+        <v>270</v>
       </c>
       <c r="E16">
         <v>4</v>
@@ -1185,13 +1191,13 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C17">
         <v>19999</v>
       </c>
       <c r="D17">
-        <v>312.89999999999998</v>
+        <v>450</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1208,13 +1214,13 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="C18">
         <v>18198</v>
       </c>
       <c r="D18">
-        <v>164.7</v>
+        <v>270</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1231,13 +1237,13 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19">
         <v>22742</v>
       </c>
       <c r="D19">
-        <v>215.7</v>
+        <v>300</v>
       </c>
       <c r="E19">
         <v>5</v>
@@ -1254,13 +1260,13 @@
         <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="C20">
         <v>23474</v>
       </c>
       <c r="D20">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1277,13 +1283,13 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C21">
         <v>19505</v>
       </c>
       <c r="D21">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="E21">
         <v>5</v>
@@ -1300,13 +1306,13 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="C22">
         <v>18921</v>
       </c>
       <c r="D22">
-        <v>174.3</v>
+        <v>200</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -1323,13 +1329,13 @@
         <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C23">
         <v>8630</v>
       </c>
       <c r="D23">
-        <v>246.7</v>
+        <v>200</v>
       </c>
       <c r="E23">
         <v>5</v>
@@ -1346,13 +1352,13 @@
         <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="C24">
         <v>8611</v>
       </c>
       <c r="D24">
-        <v>337.3</v>
+        <v>350</v>
       </c>
       <c r="E24">
         <v>5</v>
@@ -1369,13 +1375,13 @@
         <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="C25">
         <v>5329</v>
       </c>
       <c r="D25">
-        <v>240.5</v>
+        <v>200</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -1392,13 +1398,13 @@
         <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C26">
         <v>13350</v>
       </c>
       <c r="D26">
-        <v>244.7</v>
+        <v>270</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -1415,13 +1421,13 @@
         <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C27">
         <v>23286</v>
       </c>
       <c r="D27">
-        <v>281</v>
+        <v>400</v>
       </c>
       <c r="E27">
         <v>4</v>
@@ -1438,13 +1444,13 @@
         <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C28">
         <v>22276</v>
       </c>
       <c r="D28">
-        <v>198.3</v>
+        <v>300</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1461,13 +1467,13 @@
         <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C29">
         <v>20561</v>
       </c>
       <c r="D29">
-        <v>201.2</v>
+        <v>270</v>
       </c>
       <c r="E29">
         <v>5</v>
@@ -1484,13 +1490,13 @@
         <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C30">
         <v>16973</v>
       </c>
       <c r="D30">
-        <v>239.4</v>
+        <v>450</v>
       </c>
       <c r="E30">
         <v>4</v>
@@ -1507,13 +1513,13 @@
         <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C31">
         <v>16023</v>
       </c>
       <c r="D31">
-        <v>184.7</v>
+        <v>350</v>
       </c>
       <c r="E31">
         <v>3</v>
@@ -1530,13 +1536,13 @@
         <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="C32">
         <v>8186</v>
       </c>
       <c r="D32">
-        <v>341.5</v>
+        <v>400</v>
       </c>
       <c r="E32">
         <v>5</v>
@@ -1553,13 +1559,13 @@
         <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="C33">
         <v>22801</v>
       </c>
       <c r="D33">
-        <v>188.3</v>
+        <v>350</v>
       </c>
       <c r="E33">
         <v>4</v>
@@ -1576,13 +1582,13 @@
         <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C34">
         <v>8044</v>
       </c>
       <c r="D34">
-        <v>232.3</v>
+        <v>350</v>
       </c>
       <c r="E34">
         <v>5</v>
@@ -1599,13 +1605,13 @@
         <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C35">
         <v>23168</v>
       </c>
       <c r="D35">
-        <v>273.39999999999998</v>
+        <v>200</v>
       </c>
       <c r="E35">
         <v>3</v>
@@ -1622,13 +1628,13 @@
         <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C36">
         <v>20634</v>
       </c>
       <c r="D36">
-        <v>187.3</v>
+        <v>450</v>
       </c>
       <c r="E36">
         <v>3</v>
@@ -1651,7 +1657,7 @@
         <v>12753</v>
       </c>
       <c r="D37">
-        <v>172.2</v>
+        <v>450</v>
       </c>
       <c r="E37">
         <v>5</v>
@@ -1668,13 +1674,13 @@
         <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C38">
         <v>6201</v>
       </c>
       <c r="D38">
-        <v>183.3</v>
+        <v>300</v>
       </c>
       <c r="E38">
         <v>4</v>
@@ -1691,13 +1697,13 @@
         <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C39">
         <v>9674</v>
       </c>
       <c r="D39">
-        <v>296.2</v>
+        <v>200</v>
       </c>
       <c r="E39">
         <v>5</v>
@@ -1714,13 +1720,13 @@
         <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C40">
         <v>8990</v>
       </c>
       <c r="D40">
-        <v>197.3</v>
+        <v>270</v>
       </c>
       <c r="E40">
         <v>3</v>
@@ -1743,7 +1749,7 @@
         <v>13548</v>
       </c>
       <c r="D41">
-        <v>167.3</v>
+        <v>200</v>
       </c>
       <c r="E41">
         <v>2</v>
@@ -1766,7 +1772,7 @@
         <v>24680</v>
       </c>
       <c r="D42">
-        <v>285.10000000000002</v>
+        <v>200</v>
       </c>
       <c r="E42">
         <v>3</v>
@@ -1783,13 +1789,13 @@
         <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C43">
         <v>8959</v>
       </c>
       <c r="D43">
-        <v>268.5</v>
+        <v>300</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -1812,7 +1818,7 @@
         <v>9828</v>
       </c>
       <c r="D44">
-        <v>168.1</v>
+        <v>270</v>
       </c>
       <c r="E44">
         <v>2</v>
@@ -1829,13 +1835,13 @@
         <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C45">
         <v>6607</v>
       </c>
       <c r="D45">
-        <v>179.2</v>
+        <v>450</v>
       </c>
       <c r="E45">
         <v>5</v>
@@ -1852,13 +1858,13 @@
         <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C46">
         <v>5444</v>
       </c>
       <c r="D46">
-        <v>300.3</v>
+        <v>300</v>
       </c>
       <c r="E46">
         <v>3</v>
@@ -1875,13 +1881,13 @@
         <v>60</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>136</v>
       </c>
       <c r="C47">
         <v>7298</v>
       </c>
       <c r="D47">
-        <v>231.8</v>
+        <v>300</v>
       </c>
       <c r="E47">
         <v>4</v>
@@ -1898,13 +1904,13 @@
         <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="C48">
         <v>10379</v>
       </c>
       <c r="D48">
-        <v>254.4</v>
+        <v>270</v>
       </c>
       <c r="E48">
         <v>5</v>
@@ -1921,13 +1927,13 @@
         <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="C49">
         <v>8656</v>
       </c>
       <c r="D49">
-        <v>251</v>
+        <v>200</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -1944,13 +1950,13 @@
         <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C50">
         <v>7107</v>
       </c>
       <c r="D50">
-        <v>303.2</v>
+        <v>450</v>
       </c>
       <c r="E50">
         <v>4</v>
@@ -1967,13 +1973,13 @@
         <v>64</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="C51">
         <v>18777</v>
       </c>
       <c r="D51">
-        <v>185.5</v>
+        <v>270</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -1990,13 +1996,13 @@
         <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="C52">
         <v>14660</v>
       </c>
       <c r="D52">
-        <v>327.2</v>
+        <v>270</v>
       </c>
       <c r="E52">
         <v>2</v>
@@ -2013,13 +2019,13 @@
         <v>66</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C53">
         <v>20693</v>
       </c>
       <c r="D53">
-        <v>341.9</v>
+        <v>300</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -2036,13 +2042,13 @@
         <v>67</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C54">
         <v>19228</v>
       </c>
       <c r="D54">
-        <v>221.5</v>
+        <v>450</v>
       </c>
       <c r="E54">
         <v>3</v>
@@ -2065,7 +2071,7 @@
         <v>12968</v>
       </c>
       <c r="D55">
-        <v>166.1</v>
+        <v>350</v>
       </c>
       <c r="E55">
         <v>5</v>
@@ -2082,13 +2088,13 @@
         <v>69</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C56">
         <v>5091</v>
       </c>
       <c r="D56">
-        <v>216.6</v>
+        <v>350</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -2105,13 +2111,13 @@
         <v>70</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="C57">
         <v>23693</v>
       </c>
       <c r="D57">
-        <v>303.89999999999998</v>
+        <v>300</v>
       </c>
       <c r="E57">
         <v>2</v>
@@ -2128,13 +2134,13 @@
         <v>71</v>
       </c>
       <c r="B58" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C58">
         <v>19135</v>
       </c>
       <c r="D58">
-        <v>161.30000000000001</v>
+        <v>400</v>
       </c>
       <c r="E58">
         <v>5</v>
@@ -2157,7 +2163,7 @@
         <v>9574</v>
       </c>
       <c r="D59">
-        <v>228.3</v>
+        <v>350</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -2174,13 +2180,13 @@
         <v>73</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C60">
         <v>12084</v>
       </c>
       <c r="D60">
-        <v>301.60000000000002</v>
+        <v>270</v>
       </c>
       <c r="E60">
         <v>2</v>
@@ -2197,13 +2203,13 @@
         <v>74</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C61">
         <v>17274</v>
       </c>
       <c r="D61">
-        <v>348.5</v>
+        <v>400</v>
       </c>
       <c r="E61">
         <v>5</v>
@@ -2220,13 +2226,13 @@
         <v>75</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C62">
         <v>20224</v>
       </c>
       <c r="D62">
-        <v>219.7</v>
+        <v>200</v>
       </c>
       <c r="E62">
         <v>2</v>
@@ -2243,13 +2249,13 @@
         <v>76</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C63">
         <v>17070</v>
       </c>
       <c r="D63">
-        <v>309.5</v>
+        <v>400</v>
       </c>
       <c r="E63">
         <v>4</v>
@@ -2266,13 +2272,13 @@
         <v>77</v>
       </c>
       <c r="B64" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C64">
         <v>11025</v>
       </c>
       <c r="D64">
-        <v>168.2</v>
+        <v>270</v>
       </c>
       <c r="E64">
         <v>5</v>
@@ -2289,13 +2295,13 @@
         <v>78</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C65">
         <v>12235</v>
       </c>
       <c r="D65">
-        <v>314.39999999999998</v>
+        <v>450</v>
       </c>
       <c r="E65">
         <v>4</v>
@@ -2312,13 +2318,13 @@
         <v>79</v>
       </c>
       <c r="B66" t="s">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="C66">
         <v>12797</v>
       </c>
       <c r="D66">
-        <v>184.2</v>
+        <v>450</v>
       </c>
       <c r="E66">
         <v>4</v>
@@ -2335,13 +2341,13 @@
         <v>80</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C67">
         <v>9933</v>
       </c>
       <c r="D67">
-        <v>238</v>
+        <v>400</v>
       </c>
       <c r="E67">
         <v>2</v>
@@ -2364,7 +2370,7 @@
         <v>13384</v>
       </c>
       <c r="D68">
-        <v>259.2</v>
+        <v>400</v>
       </c>
       <c r="E68">
         <v>4</v>
@@ -2381,13 +2387,13 @@
         <v>82</v>
       </c>
       <c r="B69" t="s">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="C69">
         <v>12913</v>
       </c>
       <c r="D69">
-        <v>332.6</v>
+        <v>270</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -2404,13 +2410,13 @@
         <v>83</v>
       </c>
       <c r="B70" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C70">
         <v>8571</v>
       </c>
       <c r="D70">
-        <v>309.7</v>
+        <v>270</v>
       </c>
       <c r="E70">
         <v>5</v>
@@ -2427,13 +2433,13 @@
         <v>84</v>
       </c>
       <c r="B71" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="C71">
         <v>16100</v>
       </c>
       <c r="D71">
-        <v>193.8</v>
+        <v>270</v>
       </c>
       <c r="E71">
         <v>2</v>
@@ -2450,13 +2456,13 @@
         <v>85</v>
       </c>
       <c r="B72" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C72">
         <v>24538</v>
       </c>
       <c r="D72">
-        <v>225.8</v>
+        <v>200</v>
       </c>
       <c r="E72">
         <v>2</v>
@@ -2473,13 +2479,13 @@
         <v>86</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C73">
         <v>17287</v>
       </c>
       <c r="D73">
-        <v>250.4</v>
+        <v>450</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -2496,13 +2502,13 @@
         <v>87</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C74">
         <v>20140</v>
       </c>
       <c r="D74">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="E74">
         <v>4</v>
@@ -2519,13 +2525,13 @@
         <v>88</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C75">
         <v>14486</v>
       </c>
       <c r="D75">
-        <v>204.3</v>
+        <v>350</v>
       </c>
       <c r="E75">
         <v>4</v>
@@ -2542,13 +2548,13 @@
         <v>89</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C76">
         <v>16903</v>
       </c>
       <c r="D76">
-        <v>167.9</v>
+        <v>200</v>
       </c>
       <c r="E76">
         <v>4</v>
@@ -2565,13 +2571,13 @@
         <v>90</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="C77">
         <v>11865</v>
       </c>
       <c r="D77">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="E77">
         <v>5</v>
@@ -2594,7 +2600,7 @@
         <v>5287</v>
       </c>
       <c r="D78">
-        <v>248.1</v>
+        <v>450</v>
       </c>
       <c r="E78">
         <v>3</v>
@@ -2611,13 +2617,13 @@
         <v>92</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="C79">
         <v>9055</v>
       </c>
       <c r="D79">
-        <v>281.60000000000002</v>
+        <v>300</v>
       </c>
       <c r="E79">
         <v>2</v>
@@ -2634,13 +2640,13 @@
         <v>93</v>
       </c>
       <c r="B80" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C80">
         <v>15426</v>
       </c>
       <c r="D80">
-        <v>289.3</v>
+        <v>350</v>
       </c>
       <c r="E80">
         <v>2</v>
@@ -2657,13 +2663,13 @@
         <v>94</v>
       </c>
       <c r="B81" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C81">
         <v>19364</v>
       </c>
       <c r="D81">
-        <v>287.10000000000002</v>
+        <v>270</v>
       </c>
       <c r="E81">
         <v>4</v>
@@ -2686,7 +2692,7 @@
         <v>8402</v>
       </c>
       <c r="D82">
-        <v>269.8</v>
+        <v>400</v>
       </c>
       <c r="E82">
         <v>4</v>
@@ -2703,13 +2709,13 @@
         <v>96</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>136</v>
       </c>
       <c r="C83">
         <v>13580</v>
       </c>
       <c r="D83">
-        <v>346.7</v>
+        <v>400</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -2726,13 +2732,13 @@
         <v>97</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C84">
         <v>21227</v>
       </c>
       <c r="D84">
-        <v>173.4</v>
+        <v>400</v>
       </c>
       <c r="E84">
         <v>5</v>
@@ -2749,13 +2755,13 @@
         <v>98</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C85">
         <v>21132</v>
       </c>
       <c r="D85">
-        <v>267.8</v>
+        <v>450</v>
       </c>
       <c r="E85">
         <v>3</v>
@@ -2772,13 +2778,13 @@
         <v>99</v>
       </c>
       <c r="B86" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C86">
         <v>8350</v>
       </c>
       <c r="D86">
-        <v>329.4</v>
+        <v>350</v>
       </c>
       <c r="E86">
         <v>5</v>
@@ -2795,13 +2801,13 @@
         <v>100</v>
       </c>
       <c r="B87" t="s">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="C87">
         <v>7119</v>
       </c>
       <c r="D87">
-        <v>339.5</v>
+        <v>270</v>
       </c>
       <c r="E87">
         <v>5</v>
@@ -2818,13 +2824,13 @@
         <v>101</v>
       </c>
       <c r="B88" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C88">
         <v>16484</v>
       </c>
       <c r="D88">
-        <v>252.2</v>
+        <v>270</v>
       </c>
       <c r="E88">
         <v>5</v>
@@ -2841,13 +2847,13 @@
         <v>102</v>
       </c>
       <c r="B89" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C89">
         <v>23268</v>
       </c>
       <c r="D89">
-        <v>196.4</v>
+        <v>350</v>
       </c>
       <c r="E89">
         <v>3</v>
@@ -2864,13 +2870,13 @@
         <v>103</v>
       </c>
       <c r="B90" t="s">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="C90">
         <v>23695</v>
       </c>
       <c r="D90">
-        <v>324.8</v>
+        <v>270</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -2887,13 +2893,13 @@
         <v>104</v>
       </c>
       <c r="B91" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="C91">
         <v>13349</v>
       </c>
       <c r="D91">
-        <v>214.1</v>
+        <v>300</v>
       </c>
       <c r="E91">
         <v>4</v>
@@ -2910,13 +2916,13 @@
         <v>105</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C92">
         <v>15771</v>
       </c>
       <c r="D92">
-        <v>284.3</v>
+        <v>400</v>
       </c>
       <c r="E92">
         <v>4</v>
@@ -2933,13 +2939,13 @@
         <v>106</v>
       </c>
       <c r="B93" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="C93">
         <v>14268</v>
       </c>
       <c r="D93">
-        <v>282.2</v>
+        <v>200</v>
       </c>
       <c r="E93">
         <v>4</v>
@@ -2956,13 +2962,13 @@
         <v>107</v>
       </c>
       <c r="B94" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C94">
         <v>9115</v>
       </c>
       <c r="D94">
-        <v>288.8</v>
+        <v>350</v>
       </c>
       <c r="E94">
         <v>3</v>
@@ -2979,13 +2985,13 @@
         <v>108</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C95">
         <v>23196</v>
       </c>
       <c r="D95">
-        <v>333.7</v>
+        <v>200</v>
       </c>
       <c r="E95">
         <v>4</v>
@@ -3002,13 +3008,13 @@
         <v>109</v>
       </c>
       <c r="B96" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C96">
         <v>14663</v>
       </c>
       <c r="D96">
-        <v>180.8</v>
+        <v>300</v>
       </c>
       <c r="E96">
         <v>2</v>
@@ -3025,13 +3031,13 @@
         <v>110</v>
       </c>
       <c r="B97" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="C97">
         <v>7449</v>
       </c>
       <c r="D97">
-        <v>323.5</v>
+        <v>450</v>
       </c>
       <c r="E97">
         <v>2</v>
@@ -3048,13 +3054,13 @@
         <v>111</v>
       </c>
       <c r="B98" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C98">
         <v>23354</v>
       </c>
       <c r="D98">
-        <v>268.89999999999998</v>
+        <v>350</v>
       </c>
       <c r="E98">
         <v>4</v>
@@ -3077,7 +3083,7 @@
         <v>22794</v>
       </c>
       <c r="D99">
-        <v>273.7</v>
+        <v>300</v>
       </c>
       <c r="E99">
         <v>4</v>
@@ -3094,13 +3100,13 @@
         <v>113</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>136</v>
       </c>
       <c r="C100">
         <v>20621</v>
       </c>
       <c r="D100">
-        <v>265.39999999999998</v>
+        <v>450</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -3117,13 +3123,13 @@
         <v>114</v>
       </c>
       <c r="B101" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C101">
         <v>14036</v>
       </c>
       <c r="D101">
-        <v>239.6</v>
+        <v>270</v>
       </c>
       <c r="E101">
         <v>2</v>
@@ -3140,13 +3146,13 @@
         <v>115</v>
       </c>
       <c r="B102" t="s">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="C102">
         <v>6813</v>
       </c>
       <c r="D102">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="E102">
         <v>3</v>
@@ -3163,13 +3169,13 @@
         <v>116</v>
       </c>
       <c r="B103" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C103">
         <v>24263</v>
       </c>
       <c r="D103">
-        <v>215</v>
+        <v>450</v>
       </c>
       <c r="E103">
         <v>2</v>
@@ -3186,13 +3192,13 @@
         <v>117</v>
       </c>
       <c r="B104" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C104">
         <v>23659</v>
       </c>
       <c r="D104">
-        <v>245.9</v>
+        <v>270</v>
       </c>
       <c r="E104">
         <v>4</v>
@@ -3215,7 +3221,7 @@
         <v>19962</v>
       </c>
       <c r="D105">
-        <v>218.9</v>
+        <v>270</v>
       </c>
       <c r="E105">
         <v>5</v>
@@ -3232,13 +3238,13 @@
         <v>119</v>
       </c>
       <c r="B106" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C106">
         <v>7152</v>
       </c>
       <c r="D106">
-        <v>179.7</v>
+        <v>350</v>
       </c>
       <c r="E106">
         <v>3</v>
@@ -3261,7 +3267,7 @@
         <v>8945</v>
       </c>
       <c r="D107">
-        <v>179.8</v>
+        <v>400</v>
       </c>
       <c r="E107">
         <v>5</v>
@@ -3278,13 +3284,13 @@
         <v>121</v>
       </c>
       <c r="B108" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C108">
         <v>10933</v>
       </c>
       <c r="D108">
-        <v>234.7</v>
+        <v>450</v>
       </c>
       <c r="E108">
         <v>3</v>
@@ -3307,7 +3313,7 @@
         <v>18062</v>
       </c>
       <c r="D109">
-        <v>343.6</v>
+        <v>270</v>
       </c>
       <c r="E109">
         <v>4</v>
@@ -3324,13 +3330,13 @@
         <v>123</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="C110">
         <v>14827</v>
       </c>
       <c r="D110">
-        <v>203.6</v>
+        <v>350</v>
       </c>
       <c r="E110">
         <v>4</v>
@@ -3347,13 +3353,13 @@
         <v>124</v>
       </c>
       <c r="B111" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C111">
         <v>5214</v>
       </c>
       <c r="D111">
-        <v>210.3</v>
+        <v>300</v>
       </c>
       <c r="E111">
         <v>3</v>
@@ -3376,7 +3382,7 @@
         <v>12006</v>
       </c>
       <c r="D112">
-        <v>297.2</v>
+        <v>450</v>
       </c>
       <c r="E112">
         <v>5</v>
@@ -3393,13 +3399,13 @@
         <v>126</v>
       </c>
       <c r="B113" t="s">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="C113">
         <v>24258</v>
       </c>
       <c r="D113">
-        <v>326.8</v>
+        <v>270</v>
       </c>
       <c r="E113">
         <v>5</v>
@@ -3416,13 +3422,13 @@
         <v>127</v>
       </c>
       <c r="B114" t="s">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="C114">
         <v>5253</v>
       </c>
       <c r="D114">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -3439,13 +3445,13 @@
         <v>128</v>
       </c>
       <c r="B115" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C115">
         <v>13903</v>
       </c>
       <c r="D115">
-        <v>293.89999999999998</v>
+        <v>350</v>
       </c>
       <c r="E115">
         <v>3</v>
@@ -3462,13 +3468,13 @@
         <v>129</v>
       </c>
       <c r="B116" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C116">
         <v>15228</v>
       </c>
       <c r="D116">
-        <v>166</v>
+        <v>400</v>
       </c>
       <c r="E116">
         <v>4</v>
@@ -3485,13 +3491,13 @@
         <v>130</v>
       </c>
       <c r="B117" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C117">
         <v>22076</v>
       </c>
       <c r="D117">
-        <v>274.10000000000002</v>
+        <v>450</v>
       </c>
       <c r="E117">
         <v>5</v>
@@ -3508,13 +3514,13 @@
         <v>131</v>
       </c>
       <c r="B118" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C118">
         <v>21691</v>
       </c>
       <c r="D118">
-        <v>299.5</v>
+        <v>200</v>
       </c>
       <c r="E118">
         <v>3</v>
@@ -3531,13 +3537,13 @@
         <v>132</v>
       </c>
       <c r="B119" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C119">
         <v>19971</v>
       </c>
       <c r="D119">
-        <v>246.7</v>
+        <v>450</v>
       </c>
       <c r="E119">
         <v>5</v>
@@ -3554,13 +3560,13 @@
         <v>133</v>
       </c>
       <c r="B120" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C120">
         <v>10628</v>
       </c>
       <c r="D120">
-        <v>169.9</v>
+        <v>350</v>
       </c>
       <c r="E120">
         <v>5</v>
@@ -3577,13 +3583,13 @@
         <v>134</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="C121">
         <v>19145</v>
       </c>
       <c r="D121">
-        <v>308.10000000000002</v>
+        <v>350</v>
       </c>
       <c r="E121">
         <v>4</v>

--- a/datos_produccion_grandes.xlsx
+++ b/datos_produccion_grandes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John Rodriguez\Documents\Programacion\programacion automatica\production_optimizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365EAD3B-6ED0-421C-B5D7-21D942DC5DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BEA933-312E-4A1F-9BEA-BDB7F4A7DC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="3000" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -810,7 +810,7 @@
   <dimension ref="A1:G121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K120" sqref="K120"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
